--- a/biology/Zoologie/Gobemouche_(oiseau)/Gobemouche_(oiseau).xlsx
+++ b/biology/Zoologie/Gobemouche_(oiseau)/Gobemouche_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Gobemouche, nom générique de la Commission internationale des noms français des oiseaux (CINFO), est le nom, de genre masculin, donné à de nombreuses espèces d'oiseaux de genres variés, appartenant à la famille des Muscicapidae, dans l'ordre des Passériformes. Il existe également les gobemoucherons, qui n'ont rien à voir avec les gobemouches.
-Le terme est issu du terme gobe-mouche[1], parfois encore orthographié gobe-mouches au singulier en français.
+Le terme est issu du terme gobe-mouche, parfois encore orthographié gobe-mouches au singulier en français.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur habitude d'attraper les insectes au vol leur a valu leur nom et les rend intéressants à observer[2].
-On les retrouve un peu partout autour du monde, et ils sont répandus en Afrique, en Asie et en Océanie. En Europe on ne rencontre que quatre espèces : les Gobemouches gris, noir, à collier et nain[2].
-Ces dernières sont peu colorées, mais leurs homologues exotiques affichent souvent de vives couleurs, où revient notamment le bleu. Ils ont également pour caractéristique un bec court mais largement fendu, avec des vibrisses à sa base, de longues ailes pour de courtes pattes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur habitude d'attraper les insectes au vol leur a valu leur nom et les rend intéressants à observer.
+On les retrouve un peu partout autour du monde, et ils sont répandus en Afrique, en Asie et en Océanie. En Europe on ne rencontre que quatre espèces : les Gobemouches gris, noir, à collier et nain.
+Ces dernières sont peu colorées, mais leurs homologues exotiques affichent souvent de vives couleurs, où revient notamment le bleu. Ils ont également pour caractéristique un bec court mais largement fendu, avec des vibrisses à sa base, de longues ailes pour de courtes pattes.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Désignation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on s'en tient aux noms normalisés affectés par la CINFO, l'appellation « gobemouche » ne désignerait que 123 espèces de 16 genres de la famille des Muscicapidae. Par extension, d'autres espèces plus ou moins proches sont nommées ainsi, par exemple certains stizorhins, ou l'Horizorin de Dohrn. Ils sont un peu l'équivalent des Old World flycatchers anglais.
 </t>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les noms normalisés du CINFO
-Si l'on s'en tient aux appellations normalisées de la CINFO, on compte 123 espèces de tisserins[3] :
+          <t>Les noms normalisés du CINFO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'on s'en tient aux appellations normalisées de la CINFO, on compte 123 espèces de tisserins :
 Gobemouche d'Angola — Dioptrornis brunneus
 Gobemouche ardoisé — Muscicapa comitata
 Gobemouche argenté — Empidornis semipartitus
@@ -703,8 +724,43 @@
 Gobemouche à ventre roux — Niltava vivida
 Gobemouche vert-de-gris — Eumyias thalassinus
 Gobemouche du Yunnan — Cyornis glaucicomans
-Gobemouches non normalisés
-Dans le langage des ornithologues, d'autres espèces sont appelées gobemouches, et certaines des espèces précédentes ont d'autres appellations[3],[4],[5]. Certaines de ces appellations sont également des traductions plus ou moins habiles des noms anglais des espèces :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gobemouche_(oiseau)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_(oiseau)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Listes de gobe-mouches</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gobemouches non normalisés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des ornithologues, d'autres espèces sont appelées gobemouches, et certaines des espèces précédentes ont d'autres appellations. Certaines de ces appellations sont également des traductions plus ou moins habiles des noms anglais des espèces :
 (Liste incomplète)
 Gobemouche des bambous — Muscicapa muttui
 Gobemouche bicolore — Empidornis semipartitus
@@ -765,7 +821,43 @@
 Gobemouche à tête striée — Bradornis microrhynchus
 Gobemouche de Ward — Pseudobias wardi
 Petit Gobemouche cendré — Muscicapa epulata
-Genres concernés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gobemouche_(oiseau)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_(oiseau)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Listes de gobe-mouches</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres concernés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anthipes
 Bradornis
 Culicicapa
@@ -785,8 +877,43 @@
 Niltava
 Rhinomyias
 Sigelus
-Autres gobemouches
-Il existe enfin des espèces ayant « gobemouche » comme dénomination spécifique, comme l'Échenilleur gobemouche (Hemipus picatus) ou le Moucherolle gobemouche (Contopus latirostris).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gobemouche_(oiseau)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_(oiseau)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Listes de gobe-mouches</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres gobemouches</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe enfin des espèces ayant « gobemouche » comme dénomination spécifique, comme l'Échenilleur gobemouche (Hemipus picatus) ou le Moucherolle gobemouche (Contopus latirostris).
 </t>
         </is>
       </c>
